--- a/Project/Phase 1/Sprint1/Burndown chart.xlsx
+++ b/Project/Phase 1/Sprint1/Burndown chart.xlsx
@@ -1,26 +1,86 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1cf2fe84c105be00/_FCT - UNL/2022-2023/1º Semestre/ES/bruh/ganttproject/Project/Phase 1/Sprint1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A8ABB0F7-2AF1-43C1-8166-4A33A50705C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFEF05C7-4922-4B7F-94FF-36D46D778A5B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Task ID</t>
+  </si>
+  <si>
+    <t>Task Description</t>
+  </si>
+  <si>
+    <t>Initial Estimate</t>
+  </si>
+  <si>
+    <t>Day 0</t>
+  </si>
+  <si>
+    <t>Remaining Effort</t>
+  </si>
+  <si>
+    <t>Completed Effort</t>
+  </si>
+  <si>
+    <t>Ideal Burndown</t>
+  </si>
+  <si>
+    <t>Sprint 1 Burndown Chart</t>
+  </si>
+  <si>
+    <t>Identificar code smells</t>
+  </si>
+  <si>
+    <t>Rever design patterns</t>
+  </si>
+  <si>
+    <t>Rever code smells</t>
+  </si>
+  <si>
+    <t>Corrigir eventuais erros</t>
+  </si>
+  <si>
+    <t>Identificar design patterns</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-409]d/mmm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +88,84 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -45,18 +173,420 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -66,6 +596,1226 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint Burndown Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burndown Chart'!$B$11:$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Completed Effort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burndown Chart'!$D$11:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8D0E-4F8E-897D-5B1720B3868B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1048432767"/>
+        <c:axId val="1048433599"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burndown Chart'!$B$12:$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Remaining Effort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Burndown Chart'!$D$5:$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burndown Chart'!$D$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D0E-4F8E-897D-5B1720B3868B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burndown Chart'!$B$13:$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Ideal Burndown</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Burndown Chart'!$D$5:$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burndown Chart'!$D$13:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1428571428571432</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4285714285714288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5714285714285716</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85714285714285765</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8D0E-4F8E-897D-5B1720B3868B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1048432767"/>
+        <c:axId val="1048433599"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1048432767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1048433599"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1048433599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="22"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hours</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1048432767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>16807</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>177054</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52BFCA64-3DDA-4711-BDFA-D2973C7C7C4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -85,7 +1835,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +1847,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -144,6 +1894,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -179,6 +1946,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -330,13 +2114,326 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+    </row>
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="40"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>44849</v>
+      </c>
+      <c r="F4" s="3">
+        <v>44850</v>
+      </c>
+      <c r="G4" s="3">
+        <v>44851</v>
+      </c>
+      <c r="H4" s="3">
+        <v>44852</v>
+      </c>
+      <c r="I4" s="3">
+        <v>44853</v>
+      </c>
+      <c r="J4" s="3">
+        <v>44854</v>
+      </c>
+      <c r="K4" s="3">
+        <v>44855</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="29"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>3</v>
+      </c>
+      <c r="H5" s="4">
+        <v>4</v>
+      </c>
+      <c r="I5" s="4">
+        <v>5</v>
+      </c>
+      <c r="J5" s="4">
+        <v>6</v>
+      </c>
+      <c r="K5" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="20">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="23">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="22">
+        <v>2</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="24">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="22">
+        <v>3</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="24">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="22">
+        <v>4</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="24">
+        <v>2</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="22">
+        <v>5</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="25">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" ref="E11:K11" si="0">SUM(E6:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="15">
+        <f>SUM(D6:D11)</f>
+        <v>6</v>
+      </c>
+      <c r="E12" s="16">
+        <f t="shared" ref="E12:K12" si="1">D12-SUM(E6:E10)</f>
+        <v>6</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G12" s="14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I12" s="14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J12" s="12">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="K12" s="12">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="17">
+        <f>D12</f>
+        <v>6</v>
+      </c>
+      <c r="E13" s="18">
+        <f>$D$13-($D$13/$K$5*E5)</f>
+        <v>5.1428571428571432</v>
+      </c>
+      <c r="F13" s="18">
+        <f t="shared" ref="F13:K13" si="2">$D$13-($D$13/$K$5*F5)</f>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="G13" s="18">
+        <f t="shared" si="2"/>
+        <v>3.4285714285714288</v>
+      </c>
+      <c r="H13" s="18">
+        <f t="shared" si="2"/>
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="I13" s="18">
+        <f t="shared" si="2"/>
+        <v>1.7142857142857144</v>
+      </c>
+      <c r="J13" s="18">
+        <f t="shared" si="2"/>
+        <v>0.85714285714285765</v>
+      </c>
+      <c r="K13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B11:C11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Project/Phase 1/Sprint1/Burndown chart.xlsx
+++ b/Project/Phase 1/Sprint1/Burndown chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1cf2fe84c105be00/_FCT - UNL/2022-2023/1º Semestre/ES/bruh/ganttproject/Project/Phase 1/Sprint1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A8ABB0F7-2AF1-43C1-8166-4A33A50705C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFEF05C7-4922-4B7F-94FF-36D46D778A5B}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{A8ABB0F7-2AF1-43C1-8166-4A33A50705C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7BC40AA-5F85-40BE-8A7F-9EE93B95F4DA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -531,6 +531,21 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -560,21 +575,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -708,10 +708,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -833,25 +833,25 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2118,7 +2118,7 @@
   <dimension ref="B1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2132,36 +2132,36 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="40"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="31" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2190,8 +2190,8 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29"/>
-      <c r="C5" s="27"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
@@ -2227,8 +2227,12 @@
       <c r="D6" s="23">
         <v>1</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
+      <c r="E6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.5</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -2246,7 +2250,9 @@
         <v>1</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8">
+        <v>0.5</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -2308,20 +2314,20 @@
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="35"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="13">
         <f t="shared" ref="E11:K11" si="0">SUM(E6:E10)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F11" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="13">
         <f t="shared" si="0"/>
@@ -2346,48 +2352,48 @@
       <c r="L11" s="19"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="31"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="15">
         <f>SUM(D6:D11)</f>
         <v>6</v>
       </c>
       <c r="E12" s="16">
         <f t="shared" ref="E12:K12" si="1">D12-SUM(E6:E10)</f>
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="F12" s="14">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="G12" s="14">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="H12" s="14">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="I12" s="14">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="J12" s="12">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="K12" s="12">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="33"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="17">
         <f>D12</f>
         <v>6</v>
@@ -2423,13 +2429,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project/Phase 1/Sprint1/Burndown chart.xlsx
+++ b/Project/Phase 1/Sprint1/Burndown chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1cf2fe84c105be00/_FCT - UNL/2022-2023/1º Semestre/ES/bruh/ganttproject/Project/Phase 1/Sprint1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{A8ABB0F7-2AF1-43C1-8166-4A33A50705C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7BC40AA-5F85-40BE-8A7F-9EE93B95F4DA}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{A8ABB0F7-2AF1-43C1-8166-4A33A50705C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8609A0F-7019-4359-9072-AD36C04330B2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -531,6 +531,18 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -563,18 +575,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -714,13 +714,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -839,19 +839,19 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1818,6 +1818,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2118,7 +2122,7 @@
   <dimension ref="B1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2132,36 +2136,36 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="30"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="35" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2190,8 +2194,8 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="34"/>
-      <c r="C5" s="32"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
@@ -2253,7 +2257,9 @@
       <c r="F7" s="8">
         <v>0.5</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="8">
+        <v>0.5</v>
+      </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -2272,7 +2278,9 @@
       <c r="E8" s="9"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -2290,8 +2298,12 @@
       <c r="E9" s="10"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="H9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.5</v>
+      </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
     </row>
@@ -2314,10 +2326,10 @@
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="40"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="1">
         <v>0</v>
       </c>
@@ -2331,15 +2343,15 @@
       </c>
       <c r="G11" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H11" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I11" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J11" s="13">
         <f t="shared" si="0"/>
@@ -2352,10 +2364,10 @@
       <c r="L11" s="19"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="36"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="15">
         <f>SUM(D6:D11)</f>
         <v>6</v>
@@ -2370,30 +2382,30 @@
       </c>
       <c r="G12" s="14">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H12" s="14">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="I12" s="14">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="J12" s="12">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="K12" s="12">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="38"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="17">
         <f>D12</f>
         <v>6</v>

--- a/Project/Phase 1/Sprint1/Burndown chart.xlsx
+++ b/Project/Phase 1/Sprint1/Burndown chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1cf2fe84c105be00/_FCT - UNL/2022-2023/1º Semestre/ES/bruh/ganttproject/Project/Phase 1/Sprint1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{A8ABB0F7-2AF1-43C1-8166-4A33A50705C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8609A0F-7019-4359-9072-AD36C04330B2}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{A8ABB0F7-2AF1-43C1-8166-4A33A50705C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5CF3730-E0E3-4E29-8B46-4A4D5DC711C6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -723,10 +723,10 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -848,10 +848,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2122,7 +2122,7 @@
   <dimension ref="B1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2305,7 +2305,9 @@
         <v>0.5</v>
       </c>
       <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="22">
@@ -2322,7 +2324,9 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="J10" s="8">
+        <v>1</v>
+      </c>
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -2355,11 +2359,11 @@
       </c>
       <c r="J11" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="19"/>
     </row>
@@ -2394,11 +2398,11 @@
       </c>
       <c r="J12" s="12">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12" s="12">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Project/Phase 1/Sprint1/Burndown chart.xlsx
+++ b/Project/Phase 1/Sprint1/Burndown chart.xlsx
@@ -1,26 +1,86 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1cf2fe84c105be00/_FCT - UNL/2022-2023/1º Semestre/ES/bruh/ganttproject/Project/Phase 1/Sprint1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{A8ABB0F7-2AF1-43C1-8166-4A33A50705C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5CF3730-E0E3-4E29-8B46-4A4D5DC711C6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Task ID</t>
+  </si>
+  <si>
+    <t>Task Description</t>
+  </si>
+  <si>
+    <t>Initial Estimate</t>
+  </si>
+  <si>
+    <t>Day 0</t>
+  </si>
+  <si>
+    <t>Remaining Effort</t>
+  </si>
+  <si>
+    <t>Completed Effort</t>
+  </si>
+  <si>
+    <t>Ideal Burndown</t>
+  </si>
+  <si>
+    <t>Sprint 1 Burndown Chart</t>
+  </si>
+  <si>
+    <t>Identificar code smells</t>
+  </si>
+  <si>
+    <t>Rever design patterns</t>
+  </si>
+  <si>
+    <t>Rever code smells</t>
+  </si>
+  <si>
+    <t>Corrigir eventuais erros</t>
+  </si>
+  <si>
+    <t>Identificar design patterns</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-409]d/mmm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +88,84 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -45,18 +173,420 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -66,6 +596,1230 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint Burndown Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burndown Chart'!$B$11:$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Completed Effort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burndown Chart'!$D$11:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8D0E-4F8E-897D-5B1720B3868B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1048432767"/>
+        <c:axId val="1048433599"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burndown Chart'!$B$12:$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Remaining Effort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Burndown Chart'!$D$5:$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burndown Chart'!$D$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D0E-4F8E-897D-5B1720B3868B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burndown Chart'!$B$13:$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Ideal Burndown</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Burndown Chart'!$D$5:$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burndown Chart'!$D$13:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1428571428571432</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4285714285714288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5714285714285716</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85714285714285765</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8D0E-4F8E-897D-5B1720B3868B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1048432767"/>
+        <c:axId val="1048433599"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1048432767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1048433599"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1048433599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="22"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hours</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1048432767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>16807</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>177054</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52BFCA64-3DDA-4711-BDFA-D2973C7C7C4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -85,7 +1839,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +1851,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -144,6 +1898,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -179,6 +1950,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -330,13 +2118,344 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+    </row>
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>44849</v>
+      </c>
+      <c r="F4" s="3">
+        <v>44850</v>
+      </c>
+      <c r="G4" s="3">
+        <v>44851</v>
+      </c>
+      <c r="H4" s="3">
+        <v>44852</v>
+      </c>
+      <c r="I4" s="3">
+        <v>44853</v>
+      </c>
+      <c r="J4" s="3">
+        <v>44854</v>
+      </c>
+      <c r="K4" s="3">
+        <v>44855</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="38"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>3</v>
+      </c>
+      <c r="H5" s="4">
+        <v>4</v>
+      </c>
+      <c r="I5" s="4">
+        <v>5</v>
+      </c>
+      <c r="J5" s="4">
+        <v>6</v>
+      </c>
+      <c r="K5" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="20">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="23">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="22">
+        <v>2</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="24">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="22">
+        <v>3</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="24">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="22">
+        <v>4</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="24">
+        <v>2</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="22">
+        <v>5</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="25">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8">
+        <v>1</v>
+      </c>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" ref="E11:K11" si="0">SUM(E6:E10)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="13">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="13">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="I11" s="13">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="15">
+        <f>SUM(D6:D11)</f>
+        <v>6</v>
+      </c>
+      <c r="E12" s="16">
+        <f t="shared" ref="E12:K12" si="1">D12-SUM(E6:E10)</f>
+        <v>5.5</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="G12" s="14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="I12" s="14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J12" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="17">
+        <f>D12</f>
+        <v>6</v>
+      </c>
+      <c r="E13" s="18">
+        <f>$D$13-($D$13/$K$5*E5)</f>
+        <v>5.1428571428571432</v>
+      </c>
+      <c r="F13" s="18">
+        <f t="shared" ref="F13:K13" si="2">$D$13-($D$13/$K$5*F5)</f>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="G13" s="18">
+        <f t="shared" si="2"/>
+        <v>3.4285714285714288</v>
+      </c>
+      <c r="H13" s="18">
+        <f t="shared" si="2"/>
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="I13" s="18">
+        <f t="shared" si="2"/>
+        <v>1.7142857142857144</v>
+      </c>
+      <c r="J13" s="18">
+        <f t="shared" si="2"/>
+        <v>0.85714285714285765</v>
+      </c>
+      <c r="K13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B12:C12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>